--- a/Evaluacion1/Punto2y3.xlsx
+++ b/Evaluacion1/Punto2y3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNAB\mc2_Camilo_Duran\Evaluacion1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BE7766-9B84-480B-ABCC-6B758411E71B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E52D45-CA97-4E66-B50E-79A63D16B466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F846DA9-65B3-4107-BC45-40010069948B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ley de identidad</t>
   </si>
@@ -111,14 +111,17 @@
     <t>(x+y)%4 + 0 = (x+y)%4</t>
   </si>
   <si>
-    <t>(x+y)%4*1= (x+y)%4</t>
+    <t>2*1= 2/4</t>
+  </si>
+  <si>
+    <t>No es Algebra booleana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +131,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -155,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +492,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +569,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
@@ -665,12 +685,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="B32:E32"/>
@@ -680,10 +698,12 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B44:F44"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
